--- a/src/test/resources/if1/if.xlsx
+++ b/src/test/resources/if1/if.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\if1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E838D1-0D81-433C-B099-40AAF99A8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19BFA18-856E-4B37-8BA6-344A1871E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userName == 'hugang1'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>times</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>${userName}_${caseId}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target":"userName == 'hugang1'"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -509,9 +509,9 @@
     <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.75" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -527,10 +527,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
@@ -553,17 +553,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
@@ -572,18 +572,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7"/>
     </row>

--- a/src/test/resources/if1/if.xlsx
+++ b/src/test/resources/if1/if.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\if1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19BFA18-856E-4B37-8BA6-344A1871E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6258DA64-1314-474F-88DB-A31BF8CF3968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -93,8 +93,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,18 +110,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -124,31 +125,136 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -158,30 +264,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,93 +611,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.75" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
